--- a/SPPSApi/Doc/Template/FS0713.xlsx
+++ b/SPPSApi/Doc/Template/FS0713.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\李佳奕\localSPPS\API\spps20210111\spps\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A16CE-5E87-4374-A931-24DC25F74A44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE1F72A-2162-4E3C-A857-722767D65720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>包装场</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>建议安全在库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峰值消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -401,7 +405,7 @@
     <col min="15" max="15" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,12 +422,15 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS0713.xlsx
+++ b/SPPSApi/Doc/Template/FS0713.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\李佳奕\localSPPS\API\spps20210111\spps\SPPSApi\Doc\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\补给项目\API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE1F72A-2162-4E3C-A857-722767D65720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>包装场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装材品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -39,34 +34,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安全在库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看板循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议安全在库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>峰值消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,11 +359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -405,7 +380,7 @@
     <col min="15" max="15" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,24 +390,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
